--- a/biology/Botanique/Vallée_d'Aoste_Torrette/Vallée_d'Aoste_Torrette.xlsx
+++ b/biology/Botanique/Vallée_d'Aoste_Torrette/Vallée_d'Aoste_Torrette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Torrette</t>
+          <t>Vallée_d'Aoste_Torrette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Vallée d'Aoste Torrette est un vin rouge italien de la région autonome Vallée d'Aoste doté d'une appellation DOC depuis le 30 juillet 1985. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en Vallée d'Aoste dans les communes d’Aoste, Aymavilles, Charvensod, Gressan, Introd, Jovençan,  Quart,  Saint-Christophe, Sarre et Villeneuve.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Torrette</t>
+          <t>Vallée_d'Aoste_Torrette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis vif  avec des reflets violacés
 odeur : fin, intense, vineux avec des arômes de roses sauvages
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vall%C3%A9e_d%27Aoste_Torrette</t>
+          <t>Vallée_d'Aoste_Torrette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
